--- a/nmadb/501243.xlsx
+++ b/nmadb/501243.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="9585" yWindow="-15" windowWidth="9630" windowHeight="11010" tabRatio="500"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">Study </t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -159,14 +156,24 @@
   <si>
     <t>Romer et al.</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -249,42 +256,42 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,14 +628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="5" bestFit="1" customWidth="1"/>
@@ -651,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -674,7 +681,7 @@
         <v>2011</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -703,10 +710,10 @@
         <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -714,7 +721,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -729,7 +736,7 @@
         <v>75</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
@@ -749,7 +756,7 @@
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -760,7 +767,7 @@
         <v>2009</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -775,7 +782,7 @@
         <v>149</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
@@ -795,7 +802,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
@@ -806,7 +813,7 @@
         <v>2004</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
@@ -821,7 +828,7 @@
         <v>79</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="6">
         <v>5</v>
@@ -841,7 +848,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
@@ -852,7 +859,7 @@
         <v>2003</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -867,7 +874,7 @@
         <v>37</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
@@ -894,7 +901,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>6</v>
@@ -932,7 +939,7 @@
         <v>2004</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>7</v>
@@ -970,7 +977,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5">
         <v>8</v>
@@ -1008,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5">
         <v>9</v>
@@ -1046,7 +1053,7 @@
         <v>2003</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>10</v>
@@ -1084,7 +1091,7 @@
         <v>2003</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
         <v>11</v>
@@ -1122,7 +1129,7 @@
         <v>2002</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5">
         <v>12</v>
@@ -1160,7 +1167,7 @@
         <v>2001</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5">
         <v>13</v>
@@ -1198,7 +1205,7 @@
         <v>2001</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5">
         <v>14</v>
@@ -1236,7 +1243,7 @@
         <v>2000</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="5">
         <v>15</v>
@@ -1270,7 +1277,7 @@
         <v>1999</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5">
         <v>16</v>
@@ -1304,7 +1311,7 @@
         <v>1998</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5">
         <v>17</v>
@@ -1338,7 +1345,7 @@
         <v>1998</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="5">
         <v>18</v>
